--- a/INTLINE/data/542/BOKNA/Quarterly_Real_SA.xlsx
+++ b/INTLINE/data/542/BOKNA/Quarterly_Real_SA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1171C221-F661-4E3D-A836-D4FE8F0D2197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C808D5AE-A5E5-4E2C-8440-9E70AEDE073F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="23880" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -994,775 +994,775 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3607,13 +3607,13 @@
       </c>
     </row>
     <row r="2" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -5129,13 +5129,13 @@
       </c>
     </row>
     <row r="4" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -6651,13 +6651,13 @@
       </c>
     </row>
     <row r="6" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -8173,13 +8173,13 @@
       </c>
     </row>
     <row r="8" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -9695,13 +9695,13 @@
       </c>
     </row>
     <row r="10" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -11217,13 +11217,13 @@
       </c>
     </row>
     <row r="12" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -12739,13 +12739,13 @@
       </c>
     </row>
     <row r="14" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -14261,13 +14261,13 @@
       </c>
     </row>
     <row r="16" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -15783,13 +15783,13 @@
       </c>
     </row>
     <row r="18" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -17305,13 +17305,13 @@
       </c>
     </row>
     <row r="20" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -18667,13 +18667,13 @@
       </c>
     </row>
     <row r="22" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -20189,13 +20189,13 @@
       </c>
     </row>
     <row r="24" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -21711,13 +21711,13 @@
       </c>
     </row>
     <row r="26" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -23233,13 +23233,13 @@
       </c>
     </row>
     <row r="28" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -24755,13 +24755,13 @@
       </c>
     </row>
     <row r="30" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -26277,13 +26277,13 @@
       </c>
     </row>
     <row r="32" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D32" s="5" t="s">
